--- a/17Books17.xlsx
+++ b/17Books17.xlsx
@@ -55,9 +55,43 @@
     <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$B$7:$K$7</definedName>
     <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$B$8:$K$8</definedName>
     <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$B$9:$K$9</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$A$10</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$A$11</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$A$12</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$A$13</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$25:$S$25</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$A$14</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$A$15</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$A$16</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$A$17</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$A$2</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$A$6</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$A$7</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$26:$S$26</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$A$8</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$A$9</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$B$10:$K$10</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$B$11:$K$11</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$B$12:$K$12</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$B$13:$K$13</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">Sheet1!$B$14:$K$14</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">Sheet1!$B$15:$K$15</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">Sheet1!$B$16:$K$16</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">Sheet1!$B$17:$K$17</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$27:$S$27</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">Sheet1!$B$1:$K$1</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">Sheet1!$B$2:$K$2</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">Sheet1!$B$3:$K$3</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">Sheet1!$B$4:$K$4</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">Sheet1!$B$5:$K$5</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">Sheet1!$B$6:$K$6</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">Sheet1!$B$7:$K$7</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">Sheet1!$B$8:$K$8</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">Sheet1!$B$9:$K$9</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$28:$S$28</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$29:$S$29</definedName>
   </definedNames>
@@ -77,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Range of Content Inputs</t>
   </si>
@@ -208,12 +242,6 @@
     <t>Rng.Inp.</t>
   </si>
   <si>
-    <t>Privcy</t>
-  </si>
-  <si>
-    <t>Secrty</t>
-  </si>
-  <si>
     <t>Prsnal.</t>
   </si>
   <si>
@@ -225,12 +253,24 @@
   <si>
     <t>Tempral.</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Access.</t>
+  </si>
+  <si>
+    <t>Secrty.</t>
+  </si>
+  <si>
+    <t>Privcy.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +280,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -265,8 +313,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,11 +717,11 @@
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Box Plot (User Expectations) </a:t>
+              <a:t>Box Plots (User Expectations) </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>are calculated differently.</a:t>
+              <a:t>are calculated differently. based on crowdsourced data</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -685,7 +734,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.27623034180922529"/>
+          <c:x val="0.16418235242756965"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -725,10 +774,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.1571722021878016E-2"/>
-          <c:y val="0.62865317109489893"/>
-          <c:w val="0.93748587571820086"/>
-          <c:h val="0.18813311605745103"/>
+          <c:x val="6.2689513890380216E-2"/>
+          <c:y val="0.30349129546678566"/>
+          <c:w val="0.93525036692599972"/>
+          <c:h val="0.23153944688522804"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -738,7 +787,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="15875" cap="sq" cmpd="sng">
+            <a:ln w="0" cap="sq" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
@@ -763,7 +812,7 @@
               <a:solidFill>
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:srgbClr val="7030A0"/>
                 </a:solidFill>
@@ -789,7 +838,7 @@
                 <a:solidFill>
                   <a:srgbClr val="7030A0"/>
                 </a:solidFill>
-                <a:ln w="25400">
+                <a:ln w="12700">
                   <a:solidFill>
                     <a:srgbClr val="7030A0"/>
                   </a:solidFill>
@@ -808,7 +857,7 @@
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="15875" cap="sq" cmpd="sng">
+              <a:ln w="0" cap="sq" cmpd="sng">
                 <a:solidFill>
                   <a:srgbClr val="7030A0"/>
                 </a:solidFill>
@@ -869,13 +918,13 @@
                   <c:v>Feed.</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Privcy</c:v>
+                  <c:v>Privcy.</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Secrty</c:v>
+                  <c:v>Secrty.</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Access</c:v>
+                  <c:v>Access.</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Prsnal.</c:v>
@@ -984,11 +1033,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
           <a:ln w="22225" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -1002,13 +1047,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw dist="114300" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:schemeClr val="bg1"/>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1022,6 +1072,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1047,7 +1098,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1060,42 +1111,29 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="7030A0"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Percived Performance</a:t>
+                  <a:t>N</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="7030A0"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> (</a:t>
+                  <a:t>ormalized </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="7030A0"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Range</a:t>
+                  <a:t>Percived Performance (Range 0-1) </a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="7030A0"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> 0-1) </a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US">
-                  <a:solidFill>
-                    <a:srgbClr val="7030A0"/>
-                  </a:solidFill>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1103,8 +1141,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.552917851468804E-2"/>
-              <c:y val="0.50060439470570417"/>
+              <c:x val="1.4411408729546977E-2"/>
+              <c:y val="7.5463213886397248E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1120,7 +1158,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1525,10 +1563,8 @@
       <cx:plotAreaRegion>
         <cx:plotSurface>
           <cx:spPr>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
             </a:ln>
           </cx:spPr>
         </cx:plotSurface>
@@ -4419,13 +4455,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>544287</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>136070</xdr:rowOff>
+      <xdr:rowOff>136069</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>272144</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4447,15 +4483,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
+      <xdr:colOff>48208</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:rowOff>134990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
+      <xdr:colOff>149679</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:rowOff>182776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4464,8 +4500,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16304559" y="6835588"/>
-          <a:ext cx="571500" cy="347383"/>
+          <a:off x="16417601" y="6802490"/>
+          <a:ext cx="713792" cy="428786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4501,7 +4537,7 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1800" b="1">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -4523,15 +4559,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>524997</xdr:colOff>
+      <xdr:colOff>572621</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>188181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4540,21 +4576,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5825379" y="10284681"/>
-          <a:ext cx="3374650" cy="271260"/>
+          <a:off x="5858996" y="10395806"/>
+          <a:ext cx="4856629" cy="288069"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4577,7 +4607,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1">
+            <a:rPr lang="en-US" sz="1200" b="1">
               <a:solidFill>
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
@@ -4585,14 +4615,14 @@
             <a:t>Perceived</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1" baseline="0">
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> Performance visualized by Line, range from 0 to 1. </a:t>
+            <a:t> Performance visualized by Line based on Crowdsourcing I</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1000" b="1">
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
             <a:solidFill>
               <a:srgbClr val="7030A0"/>
             </a:solidFill>
@@ -4604,16 +4634,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>425824</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>20013</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>124180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
+      <xdr:colOff>492125</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:rowOff>72726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4622,21 +4652,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12987618" y="10307013"/>
-          <a:ext cx="3507441" cy="215311"/>
+          <a:off x="12366625" y="10331805"/>
+          <a:ext cx="4540250" cy="329546"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4675,7 +4699,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000">
+            <a:rPr lang="en-US" sz="1200" b="1">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -4687,7 +4711,7 @@
             <a:t>User Expectations visualized by Box Plots</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0">
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -4696,10 +4720,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>, r</a:t>
+            <a:t> based </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1000">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -4708,10 +4732,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ange</a:t>
+            <a:t>on </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0">
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -4720,26 +4744,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> from 0 to 5.</a:t>
+            <a:t>Crowdsourcing II</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000" b="1">
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
             <a:solidFill>
               <a:schemeClr val="accent2"/>
             </a:solidFill>
@@ -4769,8 +4776,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16663148" y="7575176"/>
-          <a:ext cx="963706" cy="1479176"/>
+          <a:off x="16885398" y="7686301"/>
+          <a:ext cx="959971" cy="1479176"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4980,7 +4987,69 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Color Indicates grouping</a:t>
+            <a:t>Colors</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Indicate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>grouping</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -5046,25 +5115,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>97010</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>133752</xdr:rowOff>
+      <xdr:colOff>54036</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>67521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>63392</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>100135</xdr:rowOff>
+      <xdr:colOff>140626</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>157478</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16289510" y="7563252"/>
-          <a:ext cx="571500" cy="347383"/>
+          <a:off x="16423429" y="8259021"/>
+          <a:ext cx="698911" cy="470957"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5100,12 +5169,12 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1800" b="1">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>4</a:t>
+            <a:t>3</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5121,26 +5190,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>85804</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>88928</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>591145</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66516</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>52186</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>55311</xdr:rowOff>
+      <xdr:colOff>136755</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>32899</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16278304" y="8280428"/>
-          <a:ext cx="571500" cy="347383"/>
+          <a:off x="16348216" y="9020016"/>
+          <a:ext cx="770253" cy="347383"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5176,12 +5245,12 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1800" b="1">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5198,25 +5267,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>74598</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66516</xdr:rowOff>
+      <xdr:colOff>75052</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>27939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>40980</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>32899</xdr:rowOff>
+      <xdr:colOff>176439</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>2557</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16267098" y="9020016"/>
-          <a:ext cx="571500" cy="347383"/>
+          <a:off x="16219927" y="9854564"/>
+          <a:ext cx="704637" cy="355618"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5252,12 +5321,12 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1800" b="1">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>2</a:t>
+            <a:t>1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5273,26 +5342,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>74599</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>44104</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>461158</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>72118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>40981</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>10487</xdr:rowOff>
+      <xdr:colOff>155919</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>94530</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16267099" y="9759604"/>
-          <a:ext cx="571500" cy="347383"/>
+          <a:off x="16218229" y="7501618"/>
+          <a:ext cx="919404" cy="403412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5328,12 +5397,12 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1800" b="1">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>4</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5342,6 +5411,134 @@
               <a:schemeClr val="accent2"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>353785</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5701392" y="6830785"/>
+          <a:ext cx="258536" cy="394607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333987</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>160532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66515</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>45393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5620362" y="9796657"/>
+          <a:ext cx="335778" cy="265861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5613,18 +5810,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC62" sqref="AC62"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -5661,7 +5859,7 @@
       <c r="L1">
         <v>3.8710710000000002E-2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N1">
@@ -6102,7 +6300,7 @@
         <v>0.17823315100000001</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N11">
         <v>0.17823315100000001</v>
@@ -6146,7 +6344,7 @@
         <v>0.14319843300000001</v>
       </c>
       <c r="M12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N12">
         <v>0.14319843300000001</v>
@@ -6190,7 +6388,7 @@
         <v>4.7720946E-2</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>4.7720946E-2</v>
@@ -6234,7 +6432,7 @@
         <v>1.6594187E-2</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1.6594187E-2</v>
@@ -6278,7 +6476,7 @@
         <v>3.9803444E-2</v>
       </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>3.9803444E-2</v>
@@ -6322,7 +6520,7 @@
         <v>5.9908332000000002E-2</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>5.9908332000000002E-2</v>
@@ -6366,7 +6564,7 @@
         <v>3.2707839000000002E-2</v>
       </c>
       <c r="M17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>3.2707839000000002E-2</v>
@@ -6985,10 +7183,15 @@
         <v>2</v>
       </c>
     </row>
+    <row r="62" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC62" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>